--- a/biology/Botanique/Massonia_depressa/Massonia_depressa.xlsx
+++ b/biology/Botanique/Massonia_depressa/Massonia_depressa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Massonia depressa est une espèce de plantes. Elle appartient à la famille des Liliaceae selon la classification classique, mais la classification phylogénétique la place dans la famille des Asparagaceae.
 Elle est originaire d'Afrique du Sud, en Province du Cap et en État-Libre.
